--- a/Tornister/SZKOŁY/LICEA - Średni limit punktowy.xlsx
+++ b/Tornister/SZKOŁY/LICEA - Średni limit punktowy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">Szkoła</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">V LO Gdańsk</t>
   </si>
   <si>
-    <t xml:space="preserve">VI LO Gdańsk</t>
-  </si>
-  <si>
     <t xml:space="preserve">VII LO Gdańsk</t>
   </si>
   <si>
@@ -67,6 +64,48 @@
     <t xml:space="preserve">XX LO Gdańsk</t>
   </si>
   <si>
+    <t xml:space="preserve">Gdańskie Liceum Autonomiczne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LO Collegium Gedanense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I LO Sopot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II LO Sopot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III LO Sopot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I LO Akademickie Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II LO Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III LO Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI LO Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VII LO Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IX LO Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X LO Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XIV LO Gdynia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V LO Gdynia</t>
+  </si>
+  <si>
     <t xml:space="preserve">XXI LO Gdańsk</t>
   </si>
   <si>
@@ -74,60 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">XXIV LO Gdańsk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gdańskie Liceum Autonomiczne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LO Collegium Gedanense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I LO Sopot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II LO Sopot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III LO Sopot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I LO Akademickie Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VI LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VII LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IX LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XII LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XIII LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XIV LO Gdynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  </t>
   </si>
 </sst>
 </file>
@@ -232,10 +217,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,7 +228,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -336,7 +321,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>52.2</v>
+        <v>81</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,13 +335,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>81</v>
+        <v>104.8</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>97</v>
+        <v>139.7</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,13 +349,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>104.8</v>
+        <v>106</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>139.7</v>
+        <v>121.3</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>149</v>
+        <v>137.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,13 +363,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>106</v>
+        <v>60.2</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>121.3</v>
+        <v>50.9</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>137.8</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,13 +377,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>60.2</v>
+        <v>106</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>50.9</v>
+        <v>113.1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>70.3</v>
+        <v>121.1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,13 +391,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>106</v>
+        <v>101.8</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>113.1</v>
+        <v>102.3</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>121.1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,13 +405,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>101.8</v>
+        <v>110</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>102.3</v>
+        <v>124.2</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>84</v>
+        <v>126.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,13 +419,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>110</v>
+        <v>125.8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>124.2</v>
+        <v>140.6</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>126.3</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,13 +433,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>125.8</v>
+        <v>112.4</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140.6</v>
+        <v>146.4</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>148.5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,10 +447,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>38</v>
+        <v>79.6</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>61.7</v>
+        <v>113.3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>125.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,10 +461,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>39.8</v>
+        <v>43.2</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>61.7</v>
+        <v>84.6</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,10 +475,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>108.9</v>
+        <v>140.9</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>155.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,13 +489,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>112.4</v>
+        <v>86.6</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>146.4</v>
+        <v>91.5</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,13 +503,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>79.6</v>
+        <v>112.8</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>113.3</v>
+        <v>140.3</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>125.8</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,13 +517,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43.2</v>
+        <v>112.6</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>84.6</v>
+        <v>139.3</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>75</v>
+        <v>139.8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,13 +531,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>132</v>
+        <v>149.8</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140.9</v>
+        <v>182.9</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>155.2</v>
+        <v>176.2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,13 +545,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>86.6</v>
+        <v>155</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>91.5</v>
+        <v>164.9</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>109</v>
+        <v>167.6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,13 +559,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>112.8</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>140.3</v>
+        <v>50.1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>110.8</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,13 +573,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>112.6</v>
+        <v>118</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>139.3</v>
+        <v>128.3</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>139.8</v>
+        <v>124.1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,13 +587,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>149.8</v>
+        <v>131</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>182.9</v>
+        <v>145.5</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>176.2</v>
+        <v>164.6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,109 +601,71 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>37.2</v>
+        <v>92.2</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>50.8</v>
+        <v>0</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2015</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>91.3</v>
+        <v>2016</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>155</v>
+        <v>50.8</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>167.6</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>101.6</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>118</v>
+        <v>39.8</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>128.3</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>124.1</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>164.6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>116.2</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>108.9</v>
       </c>
     </row>
   </sheetData>
